--- a/GrafyWykresy.xlsx
+++ b/GrafyWykresy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tiarek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tiarek\Desktop\Grafy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19530" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,3394 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> topologiczne </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>BFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Sąsiedztwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3D24-4429-AADB-4026570A75E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista Następników</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3D24-4429-AADB-4026570A75E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabela Krawędzi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3D24-4429-AADB-4026570A75E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Grafu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3D24-4429-AADB-4026570A75E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504501344"/>
+        <c:axId val="504497600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504501344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wierzchołków [n]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504497600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504497600"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504501344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tabela Krawędzi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>- DFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.888888888888889E-2"/>
+          <c:y val="0.26372739865850098"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Czas(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-773D-4795-B596-4C7C5BA32574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="551474256"/>
+        <c:axId val="551468272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="551474256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551468272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551468272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551474256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Macierz Grafu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>-DFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Czas(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-391F-40A0-A7E0-EA1AC0EFF105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="551476976"/>
+        <c:axId val="551466096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="551476976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551466096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551466096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551476976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> topologiczne D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>FS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Sąsiedztwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-741E-48FE-BCCC-FBA4B24E39DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista Następników</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-741E-48FE-BCCC-FBA4B24E39DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabela Krawędzi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-741E-48FE-BCCC-FBA4B24E39DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Grafu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-741E-48FE-BCCC-FBA4B24E39DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504501344"/>
+        <c:axId val="504497600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504501344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wierzchołków [n]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504497600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504497600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504501344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> topologiczne </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>BFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Sąsiedztwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78E1-410A-A000-106DF61D7151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista Następników</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78E1-410A-A000-106DF61D7151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz Grafu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78E1-410A-A000-106DF61D7151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504501344"/>
+        <c:axId val="504497600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dane!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tabela Krawędzi</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dane!$B$3:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dane!$E$3:$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1226</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4073</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>19711</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>39484</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60586</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>88989</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>115654</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>173962</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-78E1-410A-A000-106DF61D7151}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504501344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wierzchołków [n]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504497600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504497600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504501344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -728,7 +4116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -966,10 +4354,10 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>340</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +4525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1543,7 +4931,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1952,7 +5340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2367,7 +5755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2785,834 +6173,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tabela Krawędzi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>- DFS</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.888888888888889E-2"/>
-          <c:y val="0.26372739865850098"/>
-          <c:w val="0.93888888888888888"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Czas(ms)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Dane!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dane!$I$3:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-773D-4795-B596-4C7C5BA32574}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="551474256"/>
-        <c:axId val="551468272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="551474256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="551468272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="551468272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551474256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="7"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Macierz Grafu</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>-DFS</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Czas(ms)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Dane!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dane!$J$3:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7637</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15752</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30433</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51360</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99506</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>173743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-391F-40A0-A7E0-EA1AC0EFF105}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="551476976"/>
-        <c:axId val="551466096"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="551476976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="551466096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="551466096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551476976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3650,6 +6210,18 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
 </cs:colorStyle>
 </file>
 
@@ -3694,6 +6266,126 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -3730,13 +6422,13 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -3763,26 +6455,14 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
-  <a:schemeClr val="accent6"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3890,6 +6570,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3900,6 +6585,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3931,6 +6621,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4284,7 +6977,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4787,7 +7480,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5290,8 +7983,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5399,6 +8092,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5409,6 +8107,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5440,6 +8143,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5793,8 +8499,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5902,6 +8608,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5912,6 +8623,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5943,6 +8659,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6296,7 +9015,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6799,7 +9518,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7302,7 +10021,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7805,7 +10524,1615 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8331,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8414,7 +12741,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="J3" s="2">
         <v>141</v>
@@ -8443,7 +12770,7 @@
         <v>144</v>
       </c>
       <c r="I4" s="2">
-        <v>6</v>
+        <v>1646</v>
       </c>
       <c r="J4" s="2">
         <v>1003</v>
@@ -8472,7 +12799,7 @@
         <v>472</v>
       </c>
       <c r="I5" s="2">
-        <v>14</v>
+        <v>5525</v>
       </c>
       <c r="J5" s="2">
         <v>3336</v>
@@ -8501,7 +12828,7 @@
         <v>1115</v>
       </c>
       <c r="I6" s="2">
-        <v>25</v>
+        <v>11695</v>
       </c>
       <c r="J6" s="2">
         <v>7637</v>
@@ -8530,7 +12857,7 @@
         <v>2151</v>
       </c>
       <c r="I7" s="2">
-        <v>39</v>
+        <v>20527</v>
       </c>
       <c r="J7" s="2">
         <v>15752</v>
@@ -8559,7 +12886,7 @@
         <v>4230</v>
       </c>
       <c r="I8" s="2">
-        <v>61</v>
+        <v>48031</v>
       </c>
       <c r="J8" s="2">
         <v>30433</v>
@@ -8588,7 +12915,7 @@
         <v>6742</v>
       </c>
       <c r="I9" s="2">
-        <v>86</v>
+        <v>82397</v>
       </c>
       <c r="J9" s="2">
         <v>51360</v>
@@ -8617,7 +12944,7 @@
         <v>9606</v>
       </c>
       <c r="I10" s="2">
-        <v>111</v>
+        <v>117239</v>
       </c>
       <c r="J10" s="2">
         <v>72174</v>
@@ -8631,7 +12958,7 @@
         <v>842</v>
       </c>
       <c r="D11" s="2">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2">
         <v>115654</v>
@@ -8646,7 +12973,7 @@
         <v>12342</v>
       </c>
       <c r="I11" s="2">
-        <v>126</v>
+        <v>200690</v>
       </c>
       <c r="J11" s="2">
         <v>99506</v>
@@ -8660,7 +12987,7 @@
         <v>948</v>
       </c>
       <c r="D12" s="2">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="E12" s="2">
         <v>173962</v>
@@ -8675,7 +13002,7 @@
         <v>25334</v>
       </c>
       <c r="I12" s="2">
-        <v>229</v>
+        <v>272431</v>
       </c>
       <c r="J12" s="2">
         <v>173743</v>
@@ -8698,6 +13025,7 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8705,8 +13033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
